--- a/analysis/ResultsAnalysis.xlsx
+++ b/analysis/ResultsAnalysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irenedelatorre/webhoseAPI/projectWork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irenedelatorre/webhoseAPI/projectWork/github_folder/Social-Media-Impact-on-Stock-Market-and-Price/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="460" windowWidth="23660" windowHeight="16500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="18980" windowHeight="16500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="42">
   <si>
     <t>Data Correlation Result</t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>AVERAGE</t>
   </si>
+  <si>
+    <t>Timewarner</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +310,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +373,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1002,11 +1008,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-1994158720"/>
-        <c:axId val="-1994161856"/>
+        <c:axId val="2130944256"/>
+        <c:axId val="2130947504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994158720"/>
+        <c:axId val="2130944256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1055,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994161856"/>
+        <c:crossAx val="2130947504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1063,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994161856"/>
+        <c:axId val="2130947504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994158720"/>
+        <c:crossAx val="2130944256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1201,7 +1207,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1837,11 +1842,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-1994206464"/>
-        <c:axId val="-1994208368"/>
+        <c:axId val="2131053248"/>
+        <c:axId val="2131056480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994206464"/>
+        <c:axId val="2131053248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994208368"/>
+        <c:crossAx val="2131056480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1891,7 +1896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994208368"/>
+        <c:axId val="2131056480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994206464"/>
+        <c:crossAx val="2131053248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,7 +2040,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2682,11 +2686,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="4"/>
-        <c:axId val="-1994372656"/>
-        <c:axId val="-1994376064"/>
+        <c:axId val="2111371120"/>
+        <c:axId val="2111374352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1994372656"/>
+        <c:axId val="2111371120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994376064"/>
+        <c:crossAx val="2111374352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2736,7 +2740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994376064"/>
+        <c:axId val="2111374352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2790,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994372656"/>
+        <c:crossAx val="2111371120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2875,7 +2879,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3521,11 +3524,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="-2079508048"/>
-        <c:axId val="-2079541712"/>
+        <c:axId val="2131098560"/>
+        <c:axId val="2131101792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079508048"/>
+        <c:axId val="2131098560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3568,7 +3571,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079541712"/>
+        <c:crossAx val="2131101792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3576,7 +3579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2079541712"/>
+        <c:axId val="2131101792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,7 +3630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2079508048"/>
+        <c:crossAx val="2131098560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7468,10 +7471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G21"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7923,31 +7926,169 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="20">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="D21" s="16">
+        <v>8</v>
+      </c>
+      <c r="E21" s="19">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>7</v>
+      </c>
+      <c r="G21" s="19">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="H21" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D22" s="16">
+        <v>4</v>
+      </c>
+      <c r="E22" s="19">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="F22" s="16">
+        <v>4</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1.17E-2</v>
+      </c>
+      <c r="H22" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="16">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="D23" s="16">
+        <v>8</v>
+      </c>
+      <c r="E23" s="19">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F23" s="16">
+        <v>7</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H23" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D24" s="16">
+        <v>8</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="F24" s="16">
+        <v>8</v>
+      </c>
+      <c r="G24" s="19">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H24" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D25" s="16">
+        <v>8</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="F25" s="16">
+        <v>5</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1.06E-2</v>
+      </c>
+      <c r="H25" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D26" s="16">
+        <v>7</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>8</v>
+      </c>
+      <c r="G26" s="16">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="H26" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="14">
-        <f>AVERAGE(C3:C20)</f>
-        <v>7.3494444444444459E-2</v>
-      </c>
-      <c r="D21" s="14">
-        <f>AVERAGE(D3:D20)</f>
-        <v>5.5</v>
-      </c>
-      <c r="E21" s="14">
-        <f>AVERAGE(E3:E20)</f>
-        <v>9.4133333333333333E-2</v>
-      </c>
-      <c r="F21" s="14">
-        <f>AVERAGE(F3:F20)</f>
-        <v>5.7777777777777777</v>
-      </c>
-      <c r="G21" s="14">
-        <f>AVERAGE(G3:G20)</f>
-        <v>7.3033333333333339E-2</v>
-      </c>
-      <c r="H21" s="14">
-        <f>AVERAGE(H3:H20)</f>
+      <c r="C27" s="14">
+        <f>AVERAGE(C3:C26)</f>
+        <v>6.266666666666669E-2</v>
+      </c>
+      <c r="D27" s="14">
+        <f>AVERAGE(D3:D26)</f>
+        <v>5.916666666666667</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" ref="E27:H27" si="0">AVERAGE(E3:E26)</f>
+        <v>9.8420833333333332E-2</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="0"/>
+        <v>5.958333333333333</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="0"/>
+        <v>6.3112500000000002E-2</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
     </row>

--- a/analysis/ResultsAnalysis.xlsx
+++ b/analysis/ResultsAnalysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="18980" windowHeight="16500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="26740" windowHeight="16500" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$E$2:$F$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$F$2:$H$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$E$2:$F$28</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="50">
   <si>
     <t>Data Correlation Result</t>
   </si>
@@ -161,12 +161,36 @@
   <si>
     <t>Timewarner</t>
   </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Manufactureing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +235,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -232,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,11 +295,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,8 +367,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,6 +430,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1207,6 +1265,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2040,6 +2099,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2517,70 +2577,70 @@
                   <c:v>CVS</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>McDonalds</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verizon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Time Warner</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Walmart</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Exxon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Citigroup</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Goldman Sachs</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bank of America</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Pfizer</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Johnson &amp; Johnson</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Boeing</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>Toyota</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>McDonalds</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Honeywell</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>GE</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Microsoft</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Citigroup</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Pfizer</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>Google</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Ford</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Honeywell</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>Netflix</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Goldman Sachs</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Verizon</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>GE</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>Apple</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>Facebook</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Bank of America</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Johnson &amp; Johnson</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>IBM</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Exxon</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Time Warner</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Walmart</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>Amazon</c:v>
@@ -2590,7 +2650,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$28</c:f>
+              <c:f>Sheet2!$D$3:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2604,70 +2664,70 @@
                   <c:v>-0.18572818</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-0.10753816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04839036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20198026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20437899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20148538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1024853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03319909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13485124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.08439856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16341189</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>-0.14880681</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="14">
                   <c:v>-0.10898914</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.10753816</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
+                  <c:v>-0.06026494</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.00362245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05549304</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>-0.1026559</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.1024853</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.08439856</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="19">
                   <c:v>-0.06591131</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.06026494</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.00362245</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>0.02824415</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.03319909</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>0.04041772</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.04839036</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.05549304</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>0.08288596</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>0.11301843</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13485124</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.16341189</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>0.18108313</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.20148538</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.20198026</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.20437899</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.24785928</c:v>
@@ -2879,6 +2939,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3343,93 +3404,93 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$E$3:$E$28</c:f>
+              <c:f>Sheet2!$F$3:$F$28</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>CVS</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Nike</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Time Warner</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Starbucks</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Verizon</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Walmart</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>McDonalds</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Exxon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Citigroup</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bank of America</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Goldman Sachs</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Johnson &amp; Johnson</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pfizer</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Toyota</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>Johnson &amp; Johnson</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Nike</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Time Warner</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
+                  <c:v>GE</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ford</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Honeywell</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Boeing</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>Apple</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Citigroup</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Starbucks</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
                   <c:v>Microsoft</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>GE</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Verizon</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>Netflix</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>Ford</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>IBM</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Bank of America</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Walmart</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Goldman Sachs</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Honeywell</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>McDonalds</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>Twitter</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>Boeing</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>Amazon</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>Google</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>Facebook</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Exxon</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Pfizer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$3:$F$28</c:f>
+              <c:f>Sheet2!$H$3:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3437,79 +3498,79 @@
                   <c:v>-0.29355033</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-0.14358671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1408501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.04787902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0527142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20475423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2478325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39861602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.08443563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17785524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21517384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.2016051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61190061</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>-0.23741678</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.2016051</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.14358671</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.1408501</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
+                  <c:v>0.00200159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13475216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24598965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26197396</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>-0.11910513</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.08443563</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.04787902</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
                   <c:v>-0.03279335</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.00200159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0527142</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>0.09291922</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13475216</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>0.13552222</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.17785524</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.20475423</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.21517384</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.24598965</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2478325</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>0.25095143</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.26197396</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>0.2940653</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>0.34463074</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>0.35343149</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.39861602</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.61190061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3633,6 +3694,2152 @@
         <c:crossAx val="2131098560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Correlation between Positive</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Sentiment and Stock Price by Sector</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0115218708029389"/>
+                  <c:y val="0.0351333716712377"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0107746732327355"/>
+                  <c:y val="0.0182794390869681"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.100708046945637"/>
+                  <c:y val="-0.0659902238343802"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.136382517402716"/>
+                  <c:y val="-0.0547542687782005"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0650335764885576"/>
+                  <c:y val="-0.0968891002388746"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00675041037930463"/>
+                  <c:y val="-0.0631812350703353"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.077207489532036"/>
+                  <c:y val="-0.0744171901265151"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0861261071463057"/>
+                  <c:y val="-0.0519452800141555"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.092815070357008"/>
+                  <c:y val="-0.0519452800141555"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0344927536231885"/>
+                  <c:y val="-0.080035167654605"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0459754738015607"/>
+                  <c:y val="0.0772682031319119"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0119955406911928"/>
+                  <c:y val="0.0379423604352826"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0816499442586399"/>
+                  <c:y val="-0.0463273024860656"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0883389074693423"/>
+                  <c:y val="-0.0463273024860656"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0593534002229654"/>
+                  <c:y val="-0.0659902238343803"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0813878281937166"/>
+                  <c:y val="-0.0154284260815713"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0903064458079862"/>
+                  <c:y val="-0.00981044855348137"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.146047805897173"/>
+                  <c:y val="0.0154704503229232"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.117062298650796"/>
+                  <c:y val="-0.0126194373175263"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0947657546151212"/>
+                  <c:y val="-0.0126194373175263"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0702395561758793"/>
+                  <c:y val="-0.0435183137220207"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.04348370333307"/>
+                  <c:y val="-0.0379003361939308"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0301057769116651"/>
+                  <c:y val="-0.0379003361939308"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet2!$C$3:$C$28</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Consumer</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Energy</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Finance</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Healthcare</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Manufacturing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Manufacturing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Manufacturing</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Manufacturing</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Manufacturing</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Technology</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Technology</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-0.35488344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.21698321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.18572818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.10753816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04839036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20198026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20437899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20148538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1024853</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03319909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13485124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.08439856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16341189</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.14880681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.10898914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.06026494</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.00362245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.05549304</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.1026559</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.06591131</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.02824415</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.04041772</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.08288596</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.11301843</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18108313</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24785928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2106414608"/>
+        <c:axId val="-2095899296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2106414608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Companies</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> by Sector</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2095899296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2095899296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correlation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2106414608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Correlation between Negative Sentiment and Stock Price by Sector</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Negative Sentiment Corr vs Stock Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0770804274465692"/>
+                  <c:y val="0.0275064929711011"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.177147356580427"/>
+                  <c:y val="-0.0313940305891083"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.141794572553431"/>
+                      <c:h val="0.0392278517541328"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.179915213723285"/>
+                  <c:y val="-0.0588809415838727"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0542992125984252"/>
+                  <c:y val="-0.079823349960836"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.106317069741282"/>
+                  <c:y val="0.0379776971595828"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0975670697412823"/>
+                  <c:y val="-0.0955301562435586"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.152991141732283"/>
+                  <c:y val="0.0288351815970648"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0652054274465692"/>
+                  <c:y val="0.0353598961124625"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.178959926884139"/>
+                  <c:y val="-0.155739580327328"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0543794994375703"/>
+                  <c:y val="-0.184535391845653"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0216473565804274"/>
+                  <c:y val="0.064155707630787"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0495490719910011"/>
+                  <c:y val="0.045831100300944"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.00277685601799788"/>
+                  <c:y val="0.0222708908768603"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0253883577052868"/>
+                  <c:y val="0.0248886919239807"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.000578318335208099"/>
+                  <c:y val="-0.0850589520550769"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$F$3:$G$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="26"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Consumer</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Consumer</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Consumer</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Consumer</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Consumer</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Consumer</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Consumer</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Energy</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Healthcare</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Healthcare</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Manufactureing</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Manufactureing</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Manufactureing</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Manufactureing</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Manufactureing</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Technology</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CVS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nike</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Time Warner</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Starbucks</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Verizon</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Walmart</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>McDonalds</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Exxon</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Citigroup</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Bank of America</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Goldman Sachs</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Johnson &amp; Johnson</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Pfizer</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Toyota</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>GE</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Ford</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Honeywell</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Boeing</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Apple</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Microsoft</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Netflix</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>IBM</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Twitter</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Amazon</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Google</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Facebook</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-0.29355033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14358671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.1408501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.04787902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0527142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20475423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2478325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39861602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.08443563</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.17785524</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21517384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.2016051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61190061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.23741678</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.00200159</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13475216</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.24598965</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26197396</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.11910513</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.03279335</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.09291922</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13552222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25095143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2940653</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34463074</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35343149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2113060768"/>
+        <c:axId val="-2097114544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2113060768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097114544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2097114544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2113060768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3839,6 +6046,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -5840,6 +8127,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5928,15 +9247,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>817033</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258233</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>182033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5958,15 +9277,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>160866</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>605366</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>8466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5981,6 +9300,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6255,7 +9634,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B29"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7473,8 +10852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8094,418 +11473,583 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F57"/>
+  <dimension ref="B2:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="2" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="6" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5">
         <v>-0.35488343999999999</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="5">
         <v>-0.29355033000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="5">
         <v>-0.21698321000000001</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5">
-        <v>-0.23741677999999999</v>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-0.14358671000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5">
         <v>-0.18572817999999999</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5">
+        <v>-0.14085010000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-0.10753815999999999</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-4.7879020000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.839036E-2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5.2714200000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.20198025999999999</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.20475423000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.20437899000000001</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.24783250000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.20148537999999999</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.39861602000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-0.1024853</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-8.4435629999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3.3199090000000001E-2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.17785524</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.13485124000000001</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.21517384000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-8.4398559999999997E-2</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="5">
         <v>-0.20160510000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.16341189</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.61190060999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5">
         <v>-0.14880681000000001</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5">
-        <v>-0.14358671000000001</v>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="5">
+        <v>-0.23741677999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5">
         <v>-0.10898914</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5">
-        <v>-0.14085010000000001</v>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2.0015900000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-0.10753815999999999</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-6.0264940000000003E-2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.13475216000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-3.6224500000000001E-3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.24598965</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5.549304E-2</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.26197396000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.10265589999999999</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="5">
         <v>-0.11910513</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-6.5911310000000001E-2</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
-        <v>-0.10265589999999999</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5">
-        <v>-8.4435629999999998E-2</v>
+      <c r="G22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="5">
+        <v>-3.2793349999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>-0.1024853</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="5">
-        <v>-4.7879020000000001E-2</v>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2.8244149999999999E-2</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="5">
+        <v>9.2919219999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5">
-        <v>-8.4398559999999997E-2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5">
-        <v>-3.2793349999999999E-2</v>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4.0417719999999997E-2</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.13552222</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8.2885959999999995E-2</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.25095142999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.11301843</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.29406529999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.18108313000000001</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12">
-        <v>-6.5911310000000001E-2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5">
-        <v>2.0015900000000001E-3</v>
+      <c r="G27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.34463073999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5">
-        <v>-6.0264940000000003E-2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5">
-        <v>5.2714200000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-3.6224500000000001E-3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5">
-        <v>9.2919219999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.8244149999999999E-2</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.13475216000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3.3199090000000001E-2</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.13552222</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="5">
-        <v>4.0417719999999997E-2</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.17785524</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4.839036E-2</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.20475423000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="11">
-        <v>5.549304E-2</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.21517384000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>8.2885959999999995E-2</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.24598965</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.11301843</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.24783250000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.13485124000000001</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.25095142999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.16341189</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.26197396000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.18108313000000001</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.29406529999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.20148537999999999</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.34463073999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.20198025999999999</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.35343149000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.20437899000000001</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.39861602000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="5">
         <v>0.24785927999999999</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.61190060999999996</v>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.35343149000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3"/>
+      <c r="D57" s="5">
         <v>0.20475423000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E2:F28">
-    <sortState ref="E3:F28">
-      <sortCondition ref="F2:F28"/>
+  <autoFilter ref="F2:H28">
+    <sortState ref="F3:H28">
+      <sortCondition ref="G2:G28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>